--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_MM_G12D.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_MM_G12D.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="177">
   <si>
     <t>datasource</t>
   </si>
@@ -53,46 +53,496 @@
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>Panther_2016</t>
   </si>
   <si>
+    <t>KEGG_2019_Human</t>
+  </si>
+  <si>
+    <t>PPI_Hub_Proteins</t>
+  </si>
+  <si>
+    <t>Transcription_Factor_PPIs</t>
+  </si>
+  <si>
+    <t>KEA_2015</t>
+  </si>
+  <si>
+    <t>WikiPathways_2019_Human</t>
+  </si>
+  <si>
     <t>LINCS_L1000_Kinase_Perturbations_down</t>
   </si>
   <si>
     <t>Nicotinic acetylcholine receptor signaling pathway_Homo sapiens_P00044</t>
   </si>
   <si>
+    <t>p53 pathway feedback loops 2_Homo sapiens_P04398</t>
+  </si>
+  <si>
     <t>Inflammation mediated by chemokine and cytokine signaling pathway_Homo sapiens_P00031</t>
   </si>
   <si>
     <t>Cytoskeletal regulation by Rho GTPase_Homo sapiens_P00016</t>
   </si>
   <si>
+    <t>Wnt signaling pathway_Homo sapiens_P00057</t>
+  </si>
+  <si>
+    <t>Chronic myeloid leukemia</t>
+  </si>
+  <si>
+    <t>PRKCB</t>
+  </si>
+  <si>
+    <t>MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>GnRH signaling pathway</t>
+  </si>
+  <si>
+    <t>Prostate cancer</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>Neurotrophin signaling pathway</t>
+  </si>
+  <si>
+    <t>Longevity regulating pathway</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Sphingolipid signaling pathway</t>
+  </si>
+  <si>
+    <t>Thyroid hormone signaling pathway</t>
+  </si>
+  <si>
+    <t>ZBTB7A</t>
+  </si>
+  <si>
+    <t>Serotonergic synapse</t>
+  </si>
+  <si>
+    <t>Cholinergic synapse</t>
+  </si>
+  <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>Mitophagy</t>
+  </si>
+  <si>
+    <t>Hepatitis C</t>
+  </si>
+  <si>
+    <t>Gastric cancer</t>
+  </si>
+  <si>
+    <t>Hepatitis B</t>
+  </si>
+  <si>
+    <t>Oxytocin signaling pathway</t>
+  </si>
+  <si>
+    <t>Cellular senescence</t>
+  </si>
+  <si>
+    <t>Tight junction</t>
+  </si>
+  <si>
+    <t>Apoptosis</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>Hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>Central carbon metabolism in cancer</t>
+  </si>
+  <si>
+    <t>Endometrial cancer</t>
+  </si>
+  <si>
+    <t>Kaposi sarcoma-associated herpesvirus infection</t>
+  </si>
+  <si>
+    <t>Proteoglycans in cancer</t>
+  </si>
+  <si>
+    <t>Viral carcinogenesis</t>
+  </si>
+  <si>
+    <t>Regulation of actin cytoskeleton</t>
+  </si>
+  <si>
+    <t>Human T-cell leukemia virus 1 infection</t>
+  </si>
+  <si>
+    <t>Thyroid cancer</t>
+  </si>
+  <si>
+    <t>RPS6KA3</t>
+  </si>
+  <si>
+    <t>Human cytomegalovirus infection</t>
+  </si>
+  <si>
+    <t>RAC1/PAK1/p38/MMP2 Pathway WP3303</t>
+  </si>
+  <si>
+    <t>Alzheimers Disease WP2059</t>
+  </si>
+  <si>
+    <t>ErbB Signaling Pathway WP673</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer WP4255</t>
+  </si>
+  <si>
+    <t>Signaling Pathways in Glioblastoma WP2261</t>
+  </si>
+  <si>
     <t>LCK_knockdown_96h_HCC515</t>
   </si>
   <si>
+    <t>PRKDC</t>
+  </si>
+  <si>
+    <t>CDK2</t>
+  </si>
+  <si>
     <t>3/68</t>
   </si>
   <si>
+    <t>2/45</t>
+  </si>
+  <si>
     <t>3/188</t>
   </si>
   <si>
     <t>2/70</t>
   </si>
   <si>
+    <t>3/278</t>
+  </si>
+  <si>
+    <t>2/76</t>
+  </si>
+  <si>
+    <t>4/338</t>
+  </si>
+  <si>
+    <t>3/295</t>
+  </si>
+  <si>
+    <t>2/86</t>
+  </si>
+  <si>
+    <t>2/75</t>
+  </si>
+  <si>
+    <t>2/93</t>
+  </si>
+  <si>
+    <t>2/97</t>
+  </si>
+  <si>
+    <t>2/66</t>
+  </si>
+  <si>
+    <t>2/119</t>
+  </si>
+  <si>
+    <t>2/102</t>
+  </si>
+  <si>
+    <t>2/72</t>
+  </si>
+  <si>
+    <t>2/116</t>
+  </si>
+  <si>
+    <t>2/29</t>
+  </si>
+  <si>
+    <t>2/113</t>
+  </si>
+  <si>
+    <t>2/112</t>
+  </si>
+  <si>
+    <t>2/41</t>
+  </si>
+  <si>
+    <t>2/65</t>
+  </si>
+  <si>
+    <t>2/155</t>
+  </si>
+  <si>
+    <t>2/149</t>
+  </si>
+  <si>
+    <t>2/163</t>
+  </si>
+  <si>
+    <t>2/153</t>
+  </si>
+  <si>
+    <t>2/160</t>
+  </si>
+  <si>
+    <t>2/170</t>
+  </si>
+  <si>
+    <t>2/143</t>
+  </si>
+  <si>
+    <t>2/147</t>
+  </si>
+  <si>
+    <t>2/168</t>
+  </si>
+  <si>
+    <t>2/58</t>
+  </si>
+  <si>
+    <t>2/186</t>
+  </si>
+  <si>
+    <t>2/201</t>
+  </si>
+  <si>
+    <t>2/214</t>
+  </si>
+  <si>
+    <t>2/219</t>
+  </si>
+  <si>
+    <t>2/37</t>
+  </si>
+  <si>
+    <t>3/332</t>
+  </si>
+  <si>
+    <t>2/225</t>
+  </si>
+  <si>
+    <t>2/68</t>
+  </si>
+  <si>
+    <t>2/83</t>
+  </si>
+  <si>
+    <t>2/91</t>
+  </si>
+  <si>
+    <t>2/82</t>
+  </si>
+  <si>
     <t>4/300</t>
   </si>
   <si>
+    <t>3/180</t>
+  </si>
+  <si>
+    <t>3/553</t>
+  </si>
+  <si>
     <t>MYH2;MYH14;CACNA1S</t>
   </si>
   <si>
+    <t>NRAS;TP53</t>
+  </si>
+  <si>
     <t>NRAS;MYH2;MYH14</t>
   </si>
   <si>
     <t>MYH2;MYH14</t>
   </si>
   <si>
+    <t>PCDHGA7;MYH2;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;WNK1;ZMYND8;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;CACNA1S;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;CACNA1S</t>
+  </si>
+  <si>
+    <t>ZMYND8;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;MYH14</t>
+  </si>
+  <si>
+    <t>MACF1;CACNA1S;TP53</t>
+  </si>
+  <si>
+    <t>CACNA1S;TP53</t>
+  </si>
+  <si>
     <t>UBE3C;DIS3;ZMYND8;SDK2</t>
+  </si>
+  <si>
+    <t>ZMYND8;CACNA1S;TP53</t>
+  </si>
+  <si>
+    <t>MACF1;ZMYND8;TP53</t>
   </si>
 </sst>
 </file>
@@ -178,28 +628,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0393699200298096E-5</v>
+        <v>2.4703551446813377E-5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002284094310433387</v>
+        <v>0.0027667977620430984</v>
       </c>
       <c r="G2" t="n">
-        <v>55.14705882352941</v>
+        <v>51.90311418685122</v>
       </c>
       <c r="H2" t="n">
-        <v>595.6039283576749</v>
+        <v>550.6174848474587</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="J2" t="n">
         <v>3.0</v>
@@ -210,31 +660,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="E3" t="n">
-        <v>4.182670779051345E-4</v>
+        <v>6.588989781617781E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02342295636268753</v>
+        <v>0.024598895184706385</v>
       </c>
       <c r="G3" t="n">
-        <v>19.946808510638295</v>
+        <v>52.28758169934641</v>
       </c>
       <c r="H3" t="n">
-        <v>155.17401038137294</v>
+        <v>383.00341599320996</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="J3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -242,31 +692,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0014037974466504124</v>
+        <v>5.043920864894578E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.052408438008282064</v>
+        <v>0.02824595684340964</v>
       </c>
       <c r="G4" t="n">
-        <v>35.71428571428571</v>
+        <v>18.773466833541928</v>
       </c>
       <c r="H4" t="n">
-        <v>234.59193759120603</v>
+        <v>142.5311009315676</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="J4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -274,31 +724,1503 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0015873775566978775</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03555725727003246</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.61344537815126</v>
+      </c>
+      <c r="H5" t="n">
+        <v>216.66124234659506</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0015636685595508942</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04378271966742504</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.69572577232332</v>
+      </c>
+      <c r="H6" t="n">
+        <v>82.02353674688057</v>
+      </c>
+      <c r="I6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0018677011427961764</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.057525195198122235</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.959752321981423</v>
+      </c>
+      <c r="H7" t="n">
+        <v>194.52157708270522</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.6024784871532033E-4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06169542175539833</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.922728854855553</v>
+      </c>
+      <c r="H8" t="n">
+        <v>121.66778819083869</v>
+      </c>
+      <c r="I8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0018529621693511612</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0634124831289064</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.964107676969093</v>
+      </c>
+      <c r="H9" t="n">
+        <v>75.26583945499311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002383321563268006</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06673300377150417</v>
+      </c>
+      <c r="G10" t="n">
+        <v>27.359781121751027</v>
+      </c>
+      <c r="H10" t="n">
+        <v>165.23283582614155</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001819458958372403</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07004916989733752</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31.372549019607845</v>
+      </c>
+      <c r="H11" t="n">
+        <v>197.93619130064778</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0027798364268155585</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.07134913495493267</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25.300442757748264</v>
+      </c>
+      <c r="H12" t="n">
+        <v>148.90229455498215</v>
+      </c>
+      <c r="I12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0030194288446408635</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.07153723724226045</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24.257125530624624</v>
+      </c>
+      <c r="H13" t="n">
+        <v>140.75652128011444</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0014127246831094672</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.07251986706628598</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35.65062388591801</v>
+      </c>
+      <c r="H14" t="n">
+        <v>233.94777325866252</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="n">
-        <v>7.832514757773463E-5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1427084188866325</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="H5" t="n">
-        <v>157.5773639492712</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.004503454661655143</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.07300337030472547</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.77261492832427</v>
+      </c>
+      <c r="H15" t="n">
+        <v>106.82966829755279</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0033321166769984686</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.07330656689396631</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23.06805074971165</v>
+      </c>
+      <c r="H16" t="n">
+        <v>131.58356489467687</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0016783804310391412</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.07384873896572221</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32.6797385620915</v>
+      </c>
+      <c r="H17" t="n">
+        <v>208.82111044723166</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.004503454661655143</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.07705911309943243</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19.77261492832427</v>
+      </c>
+      <c r="H18" t="n">
+        <v>106.82966829755279</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="n">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.004284718342406078</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.07762901467418071</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20.28397565922921</v>
+      </c>
+      <c r="H19" t="n">
+        <v>110.60244341081543</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.7238264049152136E-4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.07817381782106662</v>
+      </c>
+      <c r="G20" t="n">
+        <v>81.13590263691684</v>
+      </c>
+      <c r="H20" t="n">
+        <v>665.9880497950771</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.004071107650863602</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.07836882227912434</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20.82248828735034</v>
+      </c>
+      <c r="H21" t="n">
+        <v>114.6036474016536</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.004001047335642528</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08215483862519325</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21.008403361344538</v>
+      </c>
+      <c r="H22" t="n">
+        <v>115.99157811395231</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.468458658113756E-4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08421426333495184</v>
+      </c>
+      <c r="G23" t="n">
+        <v>57.38880918220947</v>
+      </c>
+      <c r="H23" t="n">
+        <v>431.0670631974987</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0013705988588532982</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.08442888970536316</v>
+      </c>
+      <c r="G24" t="n">
+        <v>36.19909502262444</v>
+      </c>
+      <c r="H24" t="n">
+        <v>238.64280584260845</v>
+      </c>
+      <c r="I24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.007519303745517923</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.09649773140081334</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15.180265654648958</v>
+      </c>
+      <c r="H25" t="n">
+        <v>74.23577582298329</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.006967408800543407</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0975437232076077</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15.791551519936835</v>
+      </c>
+      <c r="H26" t="n">
+        <v>78.42892835308685</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.008285092259151689</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09814647753148924</v>
+      </c>
+      <c r="G27" t="n">
+        <v>14.435221941537351</v>
+      </c>
+      <c r="H27" t="n">
+        <v>69.19231313576954</v>
+      </c>
+      <c r="I27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.007333189458751029</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09820097188240508</v>
+      </c>
+      <c r="G28" t="n">
+        <v>15.378700499807767</v>
+      </c>
+      <c r="H28" t="n">
+        <v>75.59161451358116</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.007993937048416645</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.09848530443649307</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14.705882352941178</v>
+      </c>
+      <c r="H29" t="n">
+        <v>71.015763140854</v>
+      </c>
+      <c r="I29" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.008982898405752818</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.098811882463281</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13.84083044982699</v>
+      </c>
+      <c r="H30" t="n">
+        <v>65.22398181884166</v>
+      </c>
+      <c r="I30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.006434962104958855</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.09909841641636637</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16.454134101192924</v>
+      </c>
+      <c r="H31" t="n">
+        <v>83.02771413980534</v>
+      </c>
+      <c r="I31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.006787756348563802</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.09955375977893575</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16.00640256102441</v>
+      </c>
+      <c r="H32" t="n">
+        <v>79.91412287620744</v>
+      </c>
+      <c r="I32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.008780901788011499</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.10016732410027931</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14.005602240896359</v>
+      </c>
+      <c r="H33" t="n">
+        <v>66.31899393933665</v>
+      </c>
+      <c r="I33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0013705988588532982</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.10553611213170395</v>
+      </c>
+      <c r="G34" t="n">
+        <v>36.19909502262444</v>
+      </c>
+      <c r="H34" t="n">
+        <v>238.64280584260845</v>
+      </c>
+      <c r="I34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0010930437648723765</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.11221915986023066</v>
+      </c>
+      <c r="G35" t="n">
+        <v>40.56795131845842</v>
+      </c>
+      <c r="H35" t="n">
+        <v>276.62430140101554</v>
+      </c>
+      <c r="I35" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.010673487197147112</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.11335979505935553</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12.650221378874132</v>
+      </c>
+      <c r="H36" t="n">
+        <v>57.43190948087122</v>
+      </c>
+      <c r="I36" t="s">
+        <v>163</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01237673461794994</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.12296884717188973</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11.706175007316359</v>
+      </c>
+      <c r="H37" t="n">
+        <v>51.41278090960457</v>
+      </c>
+      <c r="I37" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01237673461794994</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.12706780874428605</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.706175007316359</v>
+      </c>
+      <c r="H38" t="n">
+        <v>51.41278090960457</v>
+      </c>
+      <c r="I38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01394328383186424</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.13420410688169332</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10.995052226498075</v>
+      </c>
+      <c r="H39" t="n">
+        <v>46.97919002079687</v>
+      </c>
+      <c r="I39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.014567748692903488</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.13596565446709924</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10.744023636852</v>
+      </c>
+      <c r="H40" t="n">
+        <v>45.43588705162548</v>
+      </c>
+      <c r="I40" t="s">
+        <v>163</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.4503356162541583E-4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.13707033698062807</v>
+      </c>
+      <c r="G41" t="n">
+        <v>63.593004769475364</v>
+      </c>
+      <c r="H41" t="n">
+        <v>490.77016593061853</v>
+      </c>
+      <c r="I41" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.002593349157933374</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1387441799494355</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10.630758327427356</v>
+      </c>
+      <c r="H42" t="n">
+        <v>63.30409419682176</v>
+      </c>
+      <c r="I42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.015332985937580697</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.13889881378749572</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10.457516339869281</v>
+      </c>
+      <c r="H43" t="n">
+        <v>43.688876629150805</v>
+      </c>
+      <c r="I43" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0014988231077721463</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1414889013736906</v>
+      </c>
+      <c r="G44" t="n">
+        <v>34.602076124567475</v>
+      </c>
+      <c r="H44" t="n">
+        <v>225.01989874215042</v>
+      </c>
+      <c r="I44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.002222323812989518</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.14984811996157893</v>
+      </c>
+      <c r="G45" t="n">
+        <v>28.348688873139622</v>
+      </c>
+      <c r="H45" t="n">
+        <v>173.1878630181154</v>
+      </c>
+      <c r="I45" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002663579809883278</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.15715120878311342</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25.856496444731743</v>
+      </c>
+      <c r="H46" t="n">
+        <v>153.27948979359584</v>
+      </c>
+      <c r="I46" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0014127246831094672</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.16670151260691712</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35.65062388591801</v>
+      </c>
+      <c r="H47" t="n">
+        <v>233.94777325866252</v>
+      </c>
+      <c r="I47" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.002169856362180887</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.17069536715822975</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28.694404591104735</v>
+      </c>
+      <c r="H48" t="n">
+        <v>175.9854894164695</v>
+      </c>
+      <c r="I48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.0121923535514024E-4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.18442144681706552</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15.686274509803923</v>
+      </c>
+      <c r="H49" t="n">
+        <v>144.2858313175401</v>
+      </c>
+      <c r="I49" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" t="n">
         <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.4424976445271957E-4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.190138899185764</v>
+      </c>
+      <c r="G50" t="n">
+        <v>19.607843137254903</v>
+      </c>
+      <c r="H50" t="n">
+        <v>151.35536512045107</v>
+      </c>
+      <c r="I50" t="s">
+        <v>175</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.010708286891915792</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1992672517278243</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6.382299755345176</v>
+      </c>
+      <c r="H51" t="n">
+        <v>28.95481775163908</v>
+      </c>
+      <c r="I51" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
